--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt5a-Fzd4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt5a-Fzd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Wnt5a</t>
+  </si>
+  <si>
+    <t>Fzd4</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Wnt5a</t>
-  </si>
-  <si>
-    <t>Fzd4</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.04240166666666666</v>
+        <v>8.775005999999999</v>
       </c>
       <c r="H2">
-        <v>0.127205</v>
+        <v>26.325018</v>
       </c>
       <c r="I2">
-        <v>0.004737824075193167</v>
+        <v>0.9920592728348052</v>
       </c>
       <c r="J2">
-        <v>0.004737824075193166</v>
+        <v>0.9920592728348053</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.38232766666667</v>
+        <v>30.58864766666666</v>
       </c>
       <c r="N2">
-        <v>91.14698300000001</v>
+        <v>91.76594299999999</v>
       </c>
       <c r="O2">
-        <v>0.4410933377331532</v>
+        <v>0.3925391465174898</v>
       </c>
       <c r="P2">
-        <v>0.4410933377331531</v>
+        <v>0.3925391465174898</v>
       </c>
       <c r="Q2">
-        <v>1.288261330279444</v>
+        <v>268.415566806886</v>
       </c>
       <c r="R2">
-        <v>11.594351972515</v>
+        <v>2415.740101261974</v>
       </c>
       <c r="S2">
-        <v>0.002089822634919444</v>
+        <v>0.389422100253336</v>
       </c>
       <c r="T2">
-        <v>0.002089822634919443</v>
+        <v>0.389422100253336</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.04240166666666666</v>
+        <v>8.775005999999999</v>
       </c>
       <c r="H3">
-        <v>0.127205</v>
+        <v>26.325018</v>
       </c>
       <c r="I3">
-        <v>0.004737824075193167</v>
+        <v>0.9920592728348052</v>
       </c>
       <c r="J3">
-        <v>0.004737824075193166</v>
+        <v>0.9920592728348053</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +620,22 @@
         <v>68.07160500000001</v>
       </c>
       <c r="O3">
-        <v>0.3294232070665772</v>
+        <v>0.291183949679193</v>
       </c>
       <c r="P3">
-        <v>0.3294232070665772</v>
+        <v>0.291183949679193</v>
       </c>
       <c r="Q3">
-        <v>0.9621165015583333</v>
+        <v>199.10958076821</v>
       </c>
       <c r="R3">
-        <v>8.659048514024999</v>
+        <v>1791.98622691389</v>
       </c>
       <c r="S3">
-        <v>0.001560749201367373</v>
+        <v>0.2888717373799067</v>
       </c>
       <c r="T3">
-        <v>0.001560749201367373</v>
+        <v>0.2888717373799067</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.04240166666666666</v>
+        <v>8.775005999999999</v>
       </c>
       <c r="H4">
-        <v>0.127205</v>
+        <v>26.325018</v>
       </c>
       <c r="I4">
-        <v>0.004737824075193167</v>
+        <v>0.9920592728348052</v>
       </c>
       <c r="J4">
-        <v>0.004737824075193166</v>
+        <v>0.9920592728348053</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,42 +676,42 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.71027466666667</v>
+        <v>24.64590566666666</v>
       </c>
       <c r="N4">
-        <v>47.130824</v>
+        <v>73.93771699999999</v>
       </c>
       <c r="O4">
-        <v>0.2280831661567317</v>
+        <v>0.3162769038033173</v>
       </c>
       <c r="P4">
-        <v>0.2280831661567317</v>
+        <v>0.3162769038033172</v>
       </c>
       <c r="Q4">
-        <v>0.6661418296577778</v>
+        <v>216.267970100434</v>
       </c>
       <c r="R4">
-        <v>5.99527646692</v>
+        <v>1946.411730903906</v>
       </c>
       <c r="S4">
-        <v>0.001080617915763647</v>
+        <v>0.3137654352015626</v>
       </c>
       <c r="T4">
-        <v>0.001080617915763646</v>
+        <v>0.3137654352015626</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,46 +720,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.04240166666666666</v>
+        <v>0.07023766666666667</v>
       </c>
       <c r="H5">
-        <v>0.127205</v>
+        <v>0.210713</v>
       </c>
       <c r="I5">
-        <v>0.004737824075193167</v>
+        <v>0.007940727165194733</v>
       </c>
       <c r="J5">
-        <v>0.004737824075193166</v>
+        <v>0.007940727165194734</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.09645133333333333</v>
+        <v>30.58864766666666</v>
       </c>
       <c r="N5">
-        <v>0.289354</v>
+        <v>91.76594299999999</v>
       </c>
       <c r="O5">
-        <v>0.001400289043537939</v>
+        <v>0.3925391465174898</v>
       </c>
       <c r="P5">
-        <v>0.001400289043537939</v>
+        <v>0.3925391465174898</v>
       </c>
       <c r="Q5">
-        <v>0.004089697285555556</v>
+        <v>2.148475238595444</v>
       </c>
       <c r="R5">
-        <v>0.03680727557</v>
+        <v>19.336277147359</v>
       </c>
       <c r="S5">
-        <v>6.634323142703261E-06</v>
+        <v>0.003117046264153787</v>
       </c>
       <c r="T5">
-        <v>6.634323142703257E-06</v>
+        <v>0.003117046264153787</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,31 +767,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>8.775005999999999</v>
+        <v>0.07023766666666667</v>
       </c>
       <c r="H6">
-        <v>26.325018</v>
+        <v>0.210713</v>
       </c>
       <c r="I6">
-        <v>0.9804905786745289</v>
+        <v>0.007940727165194733</v>
       </c>
       <c r="J6">
-        <v>0.9804905786745289</v>
+        <v>0.007940727165194734</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.38232766666667</v>
+        <v>22.690535</v>
       </c>
       <c r="N6">
-        <v>91.14698300000001</v>
+        <v>68.07160500000001</v>
       </c>
       <c r="O6">
-        <v>0.4410933377331532</v>
+        <v>0.291183949679193</v>
       </c>
       <c r="P6">
-        <v>0.4410933377331531</v>
+        <v>0.291183949679193</v>
       </c>
       <c r="Q6">
-        <v>266.605107568966</v>
+        <v>1.593730233818333</v>
       </c>
       <c r="R6">
-        <v>2399.445968120694</v>
+        <v>14.343572104365</v>
       </c>
       <c r="S6">
-        <v>0.4324878619634588</v>
+        <v>0.002312212299286264</v>
       </c>
       <c r="T6">
-        <v>0.4324878619634587</v>
+        <v>0.002312212299286264</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +829,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>8.775005999999999</v>
+        <v>0.07023766666666667</v>
       </c>
       <c r="H7">
-        <v>26.325018</v>
+        <v>0.210713</v>
       </c>
       <c r="I7">
-        <v>0.9804905786745289</v>
+        <v>0.007940727165194733</v>
       </c>
       <c r="J7">
-        <v>0.9804905786745289</v>
+        <v>0.007940727165194734</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,400 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.690535</v>
+        <v>24.64590566666666</v>
       </c>
       <c r="N7">
-        <v>68.07160500000001</v>
+        <v>73.93771699999999</v>
       </c>
       <c r="O7">
-        <v>0.3294232070665772</v>
+        <v>0.3162769038033173</v>
       </c>
       <c r="P7">
-        <v>0.3294232070665772</v>
+        <v>0.3162769038033172</v>
       </c>
       <c r="Q7">
-        <v>199.10958076821</v>
+        <v>1.731070906913444</v>
       </c>
       <c r="R7">
-        <v>1791.98622691389</v>
+        <v>15.579638162221</v>
       </c>
       <c r="S7">
-        <v>0.3229963509255275</v>
+        <v>0.002511468601754683</v>
       </c>
       <c r="T7">
-        <v>0.3229963509255274</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>8.775005999999999</v>
-      </c>
-      <c r="H8">
-        <v>26.325018</v>
-      </c>
-      <c r="I8">
-        <v>0.9804905786745289</v>
-      </c>
-      <c r="J8">
-        <v>0.9804905786745289</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>15.71027466666667</v>
-      </c>
-      <c r="N8">
-        <v>47.130824</v>
-      </c>
-      <c r="O8">
-        <v>0.2280831661567317</v>
-      </c>
-      <c r="P8">
-        <v>0.2280831661567317</v>
-      </c>
-      <c r="Q8">
-        <v>137.857754461648</v>
-      </c>
-      <c r="R8">
-        <v>1240.719790154832</v>
-      </c>
-      <c r="S8">
-        <v>0.2236333955709326</v>
-      </c>
-      <c r="T8">
-        <v>0.2236333955709326</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>8.775005999999999</v>
-      </c>
-      <c r="H9">
-        <v>26.325018</v>
-      </c>
-      <c r="I9">
-        <v>0.9804905786745289</v>
-      </c>
-      <c r="J9">
-        <v>0.9804905786745289</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.09645133333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.289354</v>
-      </c>
-      <c r="O9">
-        <v>0.001400289043537939</v>
-      </c>
-      <c r="P9">
-        <v>0.001400289043537939</v>
-      </c>
-      <c r="Q9">
-        <v>0.8463610287079999</v>
-      </c>
-      <c r="R9">
-        <v>7.617249258372</v>
-      </c>
-      <c r="S9">
-        <v>0.001372970214610117</v>
-      </c>
-      <c r="T9">
-        <v>0.001372970214610116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.1322</v>
-      </c>
-      <c r="H10">
-        <v>0.3966</v>
-      </c>
-      <c r="I10">
-        <v>0.01477159725027798</v>
-      </c>
-      <c r="J10">
-        <v>0.01477159725027797</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>30.38232766666667</v>
-      </c>
-      <c r="N10">
-        <v>91.14698300000001</v>
-      </c>
-      <c r="O10">
-        <v>0.4410933377331532</v>
-      </c>
-      <c r="P10">
-        <v>0.4410933377331531</v>
-      </c>
-      <c r="Q10">
-        <v>4.016543717533334</v>
-      </c>
-      <c r="R10">
-        <v>36.1488934578</v>
-      </c>
-      <c r="S10">
-        <v>0.00651565313477498</v>
-      </c>
-      <c r="T10">
-        <v>0.006515653134774977</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.1322</v>
-      </c>
-      <c r="H11">
-        <v>0.3966</v>
-      </c>
-      <c r="I11">
-        <v>0.01477159725027798</v>
-      </c>
-      <c r="J11">
-        <v>0.01477159725027797</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>22.690535</v>
-      </c>
-      <c r="N11">
-        <v>68.07160500000001</v>
-      </c>
-      <c r="O11">
-        <v>0.3294232070665772</v>
-      </c>
-      <c r="P11">
-        <v>0.3294232070665772</v>
-      </c>
-      <c r="Q11">
-        <v>2.999688727000001</v>
-      </c>
-      <c r="R11">
-        <v>26.997198543</v>
-      </c>
-      <c r="S11">
-        <v>0.004866106939682405</v>
-      </c>
-      <c r="T11">
-        <v>0.004866106939682402</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.1322</v>
-      </c>
-      <c r="H12">
-        <v>0.3966</v>
-      </c>
-      <c r="I12">
-        <v>0.01477159725027798</v>
-      </c>
-      <c r="J12">
-        <v>0.01477159725027797</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>15.71027466666667</v>
-      </c>
-      <c r="N12">
-        <v>47.130824</v>
-      </c>
-      <c r="O12">
-        <v>0.2280831661567317</v>
-      </c>
-      <c r="P12">
-        <v>0.2280831661567317</v>
-      </c>
-      <c r="Q12">
-        <v>2.076898310933334</v>
-      </c>
-      <c r="R12">
-        <v>18.6920847984</v>
-      </c>
-      <c r="S12">
-        <v>0.003369152670035474</v>
-      </c>
-      <c r="T12">
-        <v>0.003369152670035472</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.1322</v>
-      </c>
-      <c r="H13">
-        <v>0.3966</v>
-      </c>
-      <c r="I13">
-        <v>0.01477159725027798</v>
-      </c>
-      <c r="J13">
-        <v>0.01477159725027797</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.09645133333333333</v>
-      </c>
-      <c r="N13">
-        <v>0.289354</v>
-      </c>
-      <c r="O13">
-        <v>0.001400289043537939</v>
-      </c>
-      <c r="P13">
-        <v>0.001400289043537939</v>
-      </c>
-      <c r="Q13">
-        <v>0.01275086626666667</v>
-      </c>
-      <c r="R13">
-        <v>0.1147577964</v>
-      </c>
-      <c r="S13">
-        <v>2.06845057851194E-05</v>
-      </c>
-      <c r="T13">
-        <v>2.068450578511939E-05</v>
+        <v>0.002511468601754683</v>
       </c>
     </row>
   </sheetData>
